--- a/extracted_excel/Kisumu_gendered_enterprise.xlsx
+++ b/extracted_excel/Kisumu_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Kisumu</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>What kinds of support (financial, technical, policy) would make it easier for women and marginalized groups to thrive?</t>
   </si>
   <si>
-    <t>No response provided</t>
-  </si>
-  <si>
     <t>Depending on one's initiative, conditional external support and deliberate promotion of gender friendly enterprises by the County Government. The individuals have to provide additional resources (enterprise specific).</t>
   </si>
   <si>
@@ -157,7 +148,7 @@
     <t>Social: Patriarchal system, trust. Institution: Lack of collaterals</t>
   </si>
   <si>
-    <t>Enterprise Remarks Roles Reason Women African leafy vegetables, Complete process Culture Quick returns Less capital intensive Less competitive with men chicken farming majorly indigenous chicken Complete process Easy to handle</t>
+    <t>Enterprise Remarks Roles Reason Women African leafy vegetables, Complete process Culture Quick returns Less capital intensive Less competitive with men chicken farming majorly indigenous chicken Complete process Easy to handle Culture Quick returns Less capital intensive Less competitive with men  Men Chicken farming commercial farming complete process capital intensive</t>
   </si>
   <si>
     <t>Enterprise Process stage Decision Making by Women African leafy vegetables, Land preparation Establishment and management harvesting Marketing All stages Culture Quick returns Less capital intensive Less competitive with men chicken farming (indigenous chicken) Acquisition Management Marketing All stages Culture Quick returns Less capital intensive Less competitive with men Chicken farming (commercial) Acquisition Management Marketing (sourcing for market and handling of proceeds) Management Sourcing of market availability good in handling Rice Land preparation input acquisition nursery management transplanting weeding chemical application harvesting bird scaring marketing transplanting nursery management weeding bird scaring good in handling</t>
@@ -187,10 +178,10 @@
     <t>Income: low income Sustainability: they are more sustainable because of low investments</t>
   </si>
   <si>
-    <t>Technology adoption Favourable weather conditions</t>
-  </si>
-  <si>
-    <t>Yes. The enterprises can be replicated in other counties, especially those with similar climatic conditions. Conditions necessary includes: Technology adoption Favourable weather conditions</t>
+    <t>Technology adoption Favourable weather conditions Access to credit Ready market</t>
+  </si>
+  <si>
+    <t>Yes. The enterprises can be replicated in other counties, especially those with similar climatic conditions. Conditions necessary includes: Technology adoption Favourable weather conditions Access to credit Ready market</t>
   </si>
   <si>
     <t>Strengthening of local infrastructure (road networks and markets) Enhancing Value addition of agricultural produce Improving Access to finance to increase investments in agriculture Promotion of local products Partnerships and collaborations Enhancing extension advisory services to increase productivity and output Creation of market linkages</t>
@@ -572,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,414 +579,309 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
